--- a/logdata/recalccoeff.xlsx
+++ b/logdata/recalccoeff.xlsx
@@ -8,13 +8,44 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtrai\Documents\GitHub\detector\logdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C02707B-BA99-426D-A03A-4017CD829C9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC321571-7A2C-49D0-A433-B8CB172BB790}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{7E014F83-8137-460B-A8BB-39E7359F9631}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{7E014F83-8137-460B-A8BB-39E7359F9631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Sheet3!$A$10,Sheet3!$B$10,Sheet3!$C$10</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Sheet3!$H$8</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>Arduino Reading</t>
   </si>
@@ -64,6 +95,54 @@
   </si>
   <si>
     <t>1/T = 1 / (a + b ln R + c (ln R)^3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volt = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ln res = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ln 3 = </t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Arduino Read</t>
+  </si>
+  <si>
+    <t>Kelvin Temp</t>
+  </si>
+  <si>
+    <t>Actual Temp (C)</t>
+  </si>
+  <si>
+    <t>ln R</t>
+  </si>
+  <si>
+    <t>A:</t>
+  </si>
+  <si>
+    <t>B:</t>
+  </si>
+  <si>
+    <t>C:</t>
+  </si>
+  <si>
+    <t>Predicted 1/T</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>dif</t>
+  </si>
+  <si>
+    <t>SE:</t>
   </si>
 </sst>
 </file>
@@ -419,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F940EF4-A0E9-41CB-A48C-6FA69F86CBD3}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -671,4 +750,624 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7C03E2-9BA4-4197-91E8-7022D6E9DB42}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>249</v>
+      </c>
+      <c r="B3">
+        <v>-0.2</v>
+      </c>
+      <c r="C3">
+        <f>B3+273.15</f>
+        <v>272.95</v>
+      </c>
+      <c r="D3">
+        <f>10000 * ((1024 / A3 - 1))</f>
+        <v>31124.497991967866</v>
+      </c>
+      <c r="E3">
+        <f>LN(D3)</f>
+        <v>10.345750504864823</v>
+      </c>
+      <c r="F3">
+        <f>1/C3</f>
+        <v>3.663674665689687E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>955</v>
+      </c>
+      <c r="B4">
+        <v>97.5</v>
+      </c>
+      <c r="C4">
+        <f>B4+273.15</f>
+        <v>370.65</v>
+      </c>
+      <c r="D4">
+        <f>10000 * ((1024 / A4 - 1))</f>
+        <v>722.51308900523668</v>
+      </c>
+      <c r="E4">
+        <f>LN(D4)</f>
+        <v>6.5827355360927138</v>
+      </c>
+      <c r="F4">
+        <f>1/C4</f>
+        <v>2.697963037906381E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>429</v>
+      </c>
+      <c r="B5">
+        <v>17.2</v>
+      </c>
+      <c r="C5">
+        <f>B5+273.15</f>
+        <v>290.34999999999997</v>
+      </c>
+      <c r="D5">
+        <f>10000 * ((1024 / A5 - 1))</f>
+        <v>13869.463869463869</v>
+      </c>
+      <c r="E5">
+        <f>LN(D5)</f>
+        <v>9.5374448585937959</v>
+      </c>
+      <c r="F5">
+        <f>1/C5</f>
+        <v>3.4441191665231623E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <f>E3</f>
+        <v>10.345750504864823</v>
+      </c>
+      <c r="C7">
+        <f>E3^3</f>
+        <v>1107.3527860027941</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <f>F3</f>
+        <v>3.663674665689687E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>E4</f>
+        <v>6.5827355360927138</v>
+      </c>
+      <c r="C8">
+        <f>E4^3</f>
+        <v>285.24577633265744</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <f>F4</f>
+        <v>2.697963037906381E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <f>E5</f>
+        <v>9.5374448585937959</v>
+      </c>
+      <c r="C9">
+        <f>E5^3</f>
+        <v>867.55320831325992</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <f>F5</f>
+        <v>3.4441191665231623E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <f t="array" ref="F11:H13">MINVERSE(A7:C9)</f>
+        <v>12.572151691758505</v>
+      </c>
+      <c r="G11">
+        <v>6.6671824219049967</v>
+      </c>
+      <c r="H11">
+        <v>-18.239334113663503</v>
+      </c>
+      <c r="I11">
+        <f>F7</f>
+        <v>3.663674665689687E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>-2.4481545893261729</v>
+      </c>
+      <c r="G12">
+        <v>-1.0081726668717279</v>
+      </c>
+      <c r="H12">
+        <v>3.4563272561979006</v>
+      </c>
+      <c r="I12">
+        <f>F8</f>
+        <v>2.697963037906381E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>1.2422278663698754E-2</v>
+      </c>
+      <c r="G13">
+        <v>3.3983031450688936E-3</v>
+      </c>
+      <c r="H13">
+        <v>-1.5820581808767647E-2</v>
+      </c>
+      <c r="I13">
+        <f>F9</f>
+        <v>3.4441191665231623E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E15" s="1"/>
+      <c r="F15">
+        <f t="array" ref="F15:F17">MMULT(F11:H13,I11:I13)</f>
+        <v>1.2296451820939663E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>2.1474841119393726E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <v>1.9171487420321481E-7</v>
+      </c>
+      <c r="H17" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G18" s="2">
+        <v>1.4245633468608201E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <f>5 * (1 - B19 / 1024)</f>
+        <v>1.5478515625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <f xml:space="preserve"> 10000 / (5 / B20 - 1)</f>
+        <v>4483.7340876944836</v>
+      </c>
+      <c r="C21">
+        <v>-6.6283116795229635E-3</v>
+      </c>
+      <c r="D21">
+        <f>B21 * C21</f>
+        <v>-29.719587021340587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f>F15</f>
+        <v>1.2296451820939663E-3</v>
+      </c>
+      <c r="D22">
+        <f>B22 * C22</f>
+        <v>1.2296451820939663E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <f>LN(B21)</f>
+        <v>8.4082114799568899</v>
+      </c>
+      <c r="C23">
+        <f>F16</f>
+        <v>2.1474841119393726E-4</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:D24" si="0">B23 * C23</f>
+        <v>1.8056500563033658E-3</v>
+      </c>
+      <c r="F23">
+        <f>SUM(D22:D24)</f>
+        <v>3.1492589770237694E-3</v>
+      </c>
+      <c r="G23">
+        <f>1/F23</f>
+        <v>317.53501610879187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <f>B23^3</f>
+        <v>594.44390582671906</v>
+      </c>
+      <c r="C24">
+        <f>F17</f>
+        <v>1.9171487420321481E-7</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1.1396373862643712E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E76175-372A-4621-A72E-CB58FD5305F7}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>249</v>
+      </c>
+      <c r="B2">
+        <v>-0.2</v>
+      </c>
+      <c r="C2">
+        <f>B2+273.15</f>
+        <v>272.95</v>
+      </c>
+      <c r="D2">
+        <f>10000 * ((1024 / A2 - 1))</f>
+        <v>31124.497991967866</v>
+      </c>
+      <c r="E2">
+        <f>LN(D2)</f>
+        <v>10.345750504864823</v>
+      </c>
+      <c r="F2">
+        <f>$A$10 + $B$10 * E2 + $C$10 * E2^3</f>
+        <v>3.6636746656896662E-3</v>
+      </c>
+      <c r="G2">
+        <f>1/F2</f>
+        <v>272.95000000000152</v>
+      </c>
+      <c r="H2">
+        <f>(G2-C2)^2</f>
+        <v>2.3555260412154577E-24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>955</v>
+      </c>
+      <c r="B3">
+        <v>97.5</v>
+      </c>
+      <c r="C3">
+        <f>B3+273.15</f>
+        <v>370.65</v>
+      </c>
+      <c r="D3">
+        <f>10000 * ((1024 / A3 - 1))</f>
+        <v>722.51308900523668</v>
+      </c>
+      <c r="E3">
+        <f>LN(D3)</f>
+        <v>6.5827355360927138</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F7" si="0">$A$10 + $B$10 * E3 + $C$10 * E3^3</f>
+        <v>2.697963037906361E-3</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="1">1/F3</f>
+        <v>370.65000000000271</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="2">(G3-C3)^2</f>
+        <v>7.4446255129772491E-24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>429</v>
+      </c>
+      <c r="B4">
+        <v>17.2</v>
+      </c>
+      <c r="C4">
+        <f>B4+273.15</f>
+        <v>290.34999999999997</v>
+      </c>
+      <c r="D4">
+        <f>10000 * ((1024 / A4 - 1))</f>
+        <v>13869.463869463869</v>
+      </c>
+      <c r="E4">
+        <f>LN(D4)</f>
+        <v>9.5374448585937959</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>3.4441191665231415E-3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>290.35000000000173</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>3.105158471341639E-24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>698</v>
+      </c>
+      <c r="B5">
+        <v>43.4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C7" si="3">B5+273.15</f>
+        <v>316.54999999999995</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D7" si="4">10000 * ((1024 / A5 - 1))</f>
+        <v>4670.4871060171918</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E7" si="5">LN(D5)</f>
+        <v>8.449018650580518</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>3.1596896023190894E-3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>316.48678378598925</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>3.9962897138476885E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>827</v>
+      </c>
+      <c r="B6">
+        <v>61.4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="3"/>
+        <v>334.54999999999995</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="4"/>
+        <v>2382.1039903264805</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="5"/>
+        <v>7.7757394056904792</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>2.9896052581628897E-3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>334.49232043915367</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>3.3269317394199098E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>743</v>
+      </c>
+      <c r="B7">
+        <v>47.9</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="3"/>
+        <v>321.04999999999995</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="4"/>
+        <v>3781.9650067294751</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="5"/>
+        <v>8.2379989965921698</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>3.1059241698444162E-3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>321.96536210028995</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.83788777464731412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <f>SUM(H2:H7)</f>
+        <v>0.8452109961005817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1.2296451820939663E-3</v>
+      </c>
+      <c r="B10">
+        <v>2.1474841119393726E-4</v>
+      </c>
+      <c r="C10">
+        <v>1.9171487420321481E-7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/logdata/recalccoeff.xlsx
+++ b/logdata/recalccoeff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtrai\Documents\GitHub\detector\logdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC321571-7A2C-49D0-A433-B8CB172BB790}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F890C0-2212-4308-A388-22D9AC37421C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{7E014F83-8137-460B-A8BB-39E7359F9631}"/>
+    <workbookView xWindow="6750" yWindow="2190" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{7E014F83-8137-460B-A8BB-39E7359F9631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">Sheet3!$A$10,Sheet3!$B$10,Sheet3!$C$10</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Sheet3!$A$14,Sheet3!$B$14,Sheet3!$C$14</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>Arduino Reading</t>
   </si>
@@ -143,6 +143,24 @@
   </si>
   <si>
     <t>SE:</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>INVERSE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product </t>
+  </si>
+  <si>
+    <t>Predictors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T = </t>
+  </si>
+  <si>
+    <t>1/</t>
   </si>
 </sst>
 </file>
@@ -499,7 +517,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B5"/>
+      <selection activeCell="F15" sqref="F15:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -754,10 +772,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7C03E2-9BA4-4197-91E8-7022D6E9DB42}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1013,7 +1031,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B19">
-        <v>707</v>
+        <v>885</v>
+      </c>
+      <c r="G19">
+        <v>2.1474841119393701E-4</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -1022,7 +1043,10 @@
       </c>
       <c r="B20">
         <f>5 * (1 - B19 / 1024)</f>
-        <v>1.5478515625</v>
+        <v>0.6787109375</v>
+      </c>
+      <c r="G20">
+        <v>1.22964518209397E-3</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1030,15 +1054,11 @@
         <v>12</v>
       </c>
       <c r="B21">
-        <f xml:space="preserve"> 10000 / (5 / B20 - 1)</f>
-        <v>4483.7340876944836</v>
-      </c>
-      <c r="C21">
-        <v>-6.6283116795229635E-3</v>
-      </c>
-      <c r="D21">
-        <f>B21 * C21</f>
-        <v>-29.719587021340587</v>
+        <f>10000 * (1024 / B19 - 1)</f>
+        <v>1570.6214689265541</v>
+      </c>
+      <c r="G21">
+        <v>1.9171487420321481E-7</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -1063,7 +1083,7 @@
       </c>
       <c r="B23">
         <f>LN(B21)</f>
-        <v>8.4082114799568899</v>
+        <v>7.3592266600989449</v>
       </c>
       <c r="C23">
         <f>F16</f>
@@ -1071,15 +1091,19 @@
       </c>
       <c r="D23">
         <f t="shared" ref="D23:D24" si="0">B23 * C23</f>
-        <v>1.8056500563033658E-3</v>
+        <v>1.5803822328723136E-3</v>
       </c>
       <c r="F23">
         <f>SUM(D22:D24)</f>
-        <v>3.1492589770237694E-3</v>
+        <v>2.8864377926646392E-3</v>
       </c>
       <c r="G23">
         <f>1/F23</f>
-        <v>317.53501610879187</v>
+        <v>346.44779199514346</v>
+      </c>
+      <c r="H23">
+        <f>G23-273.15</f>
+        <v>73.297791995143484</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -1088,7 +1112,7 @@
       </c>
       <c r="B24">
         <f>B23^3</f>
-        <v>594.44390582671906</v>
+        <v>398.56259466527052</v>
       </c>
       <c r="C24">
         <f>F17</f>
@@ -1096,7 +1120,20 @@
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>1.1396373862643712E-4</v>
+        <v>7.6410377698359237E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1107,18 +1144,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E76175-372A-4621-A72E-CB58FD5305F7}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1143,8 +1180,11 @@
       <c r="H1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="O1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>249</v>
       </c>
@@ -1164,7 +1204,7 @@
         <v>10.345750504864823</v>
       </c>
       <c r="F2">
-        <f>$A$10 + $B$10 * E2 + $C$10 * E2^3</f>
+        <f>$A$14 + $B$14 * E2 + $C$14 * E2^3</f>
         <v>3.6636746656896662E-3</v>
       </c>
       <c r="G2">
@@ -1175,8 +1215,12 @@
         <f>(G2-C2)^2</f>
         <v>2.3555260412154577E-24</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2">
+        <f>1/C2</f>
+        <v>3.663674665689687E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>955</v>
       </c>
@@ -1196,19 +1240,23 @@
         <v>6.5827355360927138</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F7" si="0">$A$10 + $B$10 * E3 + $C$10 * E3^3</f>
+        <f>$A$14 + $B$14 * E3 + $C$14 * E3^3</f>
         <v>2.697963037906361E-3</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G7" si="1">1/F3</f>
+        <f t="shared" ref="G3:G7" si="0">1/F3</f>
         <v>370.65000000000271</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H7" si="2">(G3-C3)^2</f>
+        <f t="shared" ref="H3:H7" si="1">(G3-C3)^2</f>
         <v>7.4446255129772491E-24</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3">
+        <f t="shared" ref="I3:I7" si="2">1/C3</f>
+        <v>2.697963037906381E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>429</v>
       </c>
@@ -1228,19 +1276,23 @@
         <v>9.5374448585937959</v>
       </c>
       <c r="F4">
+        <f>$A$14 + $B$14 * E4 + $C$14 * E4^3</f>
+        <v>3.4441191665231415E-3</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="0"/>
-        <v>3.4441191665231415E-3</v>
-      </c>
-      <c r="G4">
+        <v>290.35000000000173</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="1"/>
-        <v>290.35000000000173</v>
-      </c>
-      <c r="H4">
+        <v>3.105158471341639E-24</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="2"/>
-        <v>3.105158471341639E-24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3.4441191665231623E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>698</v>
       </c>
@@ -1252,27 +1304,31 @@
         <v>316.54999999999995</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D7" si="4">10000 * ((1024 / A5 - 1))</f>
+        <f t="shared" ref="D5:D11" si="4">10000 * ((1024 / A5 - 1))</f>
         <v>4670.4871060171918</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E7" si="5">LN(D5)</f>
+        <f t="shared" ref="E5:E11" si="5">LN(D5)</f>
         <v>8.449018650580518</v>
       </c>
       <c r="F5">
+        <f>$A$14 + $B$14 * E5 + $C$14 * E5^3</f>
+        <v>3.1596896023190894E-3</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>3.1596896023190894E-3</v>
-      </c>
-      <c r="G5">
+        <v>316.48678378598925</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="1"/>
-        <v>316.48678378598925</v>
-      </c>
-      <c r="H5">
+        <v>3.9962897138476885E-3</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="2"/>
-        <v>3.9962897138476885E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3.1590586005370404E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>827</v>
       </c>
@@ -1292,19 +1348,23 @@
         <v>7.7757394056904792</v>
       </c>
       <c r="F6">
+        <f>$A$14 + $B$14 * E6 + $C$14 * E6^3</f>
+        <v>2.9896052581628897E-3</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>2.9896052581628897E-3</v>
-      </c>
-      <c r="G6">
+        <v>334.49232043915367</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="1"/>
-        <v>334.49232043915367</v>
-      </c>
-      <c r="H6">
+        <v>3.3269317394199098E-3</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="2"/>
-        <v>3.3269317394199098E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2.9890898221491559E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>743</v>
       </c>
@@ -1324,19 +1384,45 @@
         <v>8.2379989965921698</v>
       </c>
       <c r="F7">
+        <f>$A$14 + $B$14 * E7 + $C$14 * E7^3</f>
+        <v>3.1059241698444162E-3</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>3.1059241698444162E-3</v>
-      </c>
-      <c r="G7">
+        <v>321.96536210028995</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="1"/>
-        <v>321.96536210028995</v>
-      </c>
-      <c r="H7">
+        <v>0.83788777464731412</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="2"/>
-        <v>0.83788777464731412</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3.1147796293412243E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>623</v>
+      </c>
+      <c r="B8">
+        <v>35.4</v>
+      </c>
+      <c r="C8">
+        <f>B8+273.15</f>
+        <v>308.54999999999995</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="4"/>
+        <v>6436.5971107544137</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="5"/>
+        <v>8.7697552804952981</v>
+      </c>
+      <c r="F8">
+        <f>$A$14 + $B$14 * E8 + $C$14 * E8^3</f>
+        <v>3.2422420627549152E-3</v>
+      </c>
       <c r="G8" t="s">
         <v>26</v>
       </c>
@@ -1345,29 +1431,574 @@
         <v>0.8452109961005817</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>679</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <f>B9+273.15</f>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>5081.0014727540502</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="5"/>
+        <v>8.5332636614488457</v>
+      </c>
+      <c r="F9">
+        <f>$A$14 + $B$14 * E9 + $C$14 * E9^3</f>
+        <v>3.1812745539100359E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>483</v>
+      </c>
+      <c r="B10">
+        <v>22.5</v>
+      </c>
+      <c r="C10">
+        <f>B10+273.15</f>
+        <v>295.64999999999998</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="4"/>
+        <v>11200.828157349899</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="5"/>
+        <v>9.3237429971700916</v>
+      </c>
+      <c r="F10">
+        <f>$A$14 + $B$14 * E10 + $C$14 * E10^3</f>
+        <v>3.3872954738429265E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>885</v>
+      </c>
+      <c r="B11">
+        <v>73.3</v>
+      </c>
+      <c r="C11">
+        <f>B11+273.15</f>
+        <v>346.45</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>1570.6214689265541</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="5"/>
+        <v>7.3592266600989449</v>
+      </c>
+      <c r="F11">
+        <f>$A$14 + $B$14 * E11 + $C$14 * E11^3</f>
+        <v>2.8864377926646392E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>1.2296451820939663E-3</v>
       </c>
-      <c r="B10">
+      <c r="B14">
         <v>2.1474841119393726E-4</v>
       </c>
-      <c r="C10">
+      <c r="C14">
         <v>1.9171487420321481E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <f>E2</f>
+        <v>10.345750504864823</v>
+      </c>
+      <c r="C16">
+        <f>B16^3</f>
+        <v>1107.3527860027941</v>
+      </c>
+      <c r="G16">
+        <f>I2</f>
+        <v>3.663674665689687E-3</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>10.345750504864823</v>
+      </c>
+      <c r="L16">
+        <v>1107.3527860027941</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <f>E3</f>
+        <v>6.5827355360927138</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C21" si="6">B17^3</f>
+        <v>285.24577633265744</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17:G21" si="7">I3</f>
+        <v>2.697963037906381E-3</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>6.5827355360927138</v>
+      </c>
+      <c r="L17">
+        <v>285.24577633265744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <f>E4</f>
+        <v>9.5374448585937959</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="6"/>
+        <v>867.55320831325992</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="7"/>
+        <v>3.4441191665231623E-3</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>9.5374448585937959</v>
+      </c>
+      <c r="L18">
+        <v>867.55320831325992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <f>E5</f>
+        <v>8.449018650580518</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="6"/>
+        <v>603.1409370065146</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="7"/>
+        <v>3.1590586005370404E-3</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>8.449018650580518</v>
+      </c>
+      <c r="L19">
+        <v>603.1409370065146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <f>E6</f>
+        <v>7.7757394056904792</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="6"/>
+        <v>470.13771473602037</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="7"/>
+        <v>2.9890898221491559E-3</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>7.7757394056904792</v>
+      </c>
+      <c r="L20">
+        <v>470.13771473602037</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <f>E7</f>
+        <v>8.2379989965921698</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="6"/>
+        <v>559.06873298427934</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="7"/>
+        <v>3.1147796293412243E-3</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>8.2379989965921698</v>
+      </c>
+      <c r="L21">
+        <v>559.06873298427934</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1.2296451820939663E-3</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>10.345750504864823</v>
+      </c>
+      <c r="P23">
+        <v>1107.3527860027941</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>2.1474841119393726E-4</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>6.5827355360927138</v>
+      </c>
+      <c r="P24">
+        <v>285.24577633265744</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1.9171487420321481E-7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25">
+        <v>10.345750504864823</v>
+      </c>
+      <c r="H25">
+        <v>6.5827355360927138</v>
+      </c>
+      <c r="I25">
+        <v>9.5374448585937959</v>
+      </c>
+      <c r="J25">
+        <v>8.449018650580518</v>
+      </c>
+      <c r="K25">
+        <v>7.7757394056904792</v>
+      </c>
+      <c r="L25">
+        <v>8.2379989965921698</v>
+      </c>
+      <c r="M25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>9.5374448585937959</v>
+      </c>
+      <c r="P25">
+        <v>867.55320831325992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="G26">
+        <v>1107.3527860027941</v>
+      </c>
+      <c r="H26">
+        <v>285.24577633265744</v>
+      </c>
+      <c r="I26">
+        <v>867.55320831325992</v>
+      </c>
+      <c r="J26">
+        <v>603.1409370065146</v>
+      </c>
+      <c r="K26">
+        <v>470.13771473602037</v>
+      </c>
+      <c r="L26">
+        <v>559.06873298427934</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>8.449018650580518</v>
+      </c>
+      <c r="P26">
+        <v>603.1409370065146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>7.7757394056904792</v>
+      </c>
+      <c r="P27">
+        <v>470.13771473602037</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>8.2379989965921698</v>
+      </c>
+      <c r="P28">
+        <v>559.06873298427934</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <f t="array" ref="G31:I33">MMULT(G24:L26,N23:P28)</f>
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>50.928687952414499</v>
+      </c>
+      <c r="I31">
+        <v>3892.4991553755258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="G32">
+        <v>50.928687952414499</v>
+      </c>
+      <c r="H32">
+        <v>441.04248200868454</v>
+      </c>
+      <c r="I32">
+        <v>34965.559081042411</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="G33">
+        <v>3892.4991553755258</v>
+      </c>
+      <c r="H33">
+        <v>34965.559081042411</v>
+      </c>
+      <c r="I33">
+        <v>2957610.2237493531</v>
+      </c>
+    </row>
+    <row r="35" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="G35">
+        <f t="array" ref="G35:I37">MINVERSE(G31:I33)</f>
+        <v>177.31971163860567</v>
+      </c>
+      <c r="H35">
+        <v>-31.467629324468341</v>
+      </c>
+      <c r="I35">
+        <v>0.13864789254768545</v>
+      </c>
+    </row>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36">
+        <v>-31.46762932446839</v>
+      </c>
+      <c r="H36">
+        <v>5.6204677924836837</v>
+      </c>
+      <c r="I36">
+        <v>-2.5032060512749678E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="G37">
+        <v>0.13864789254768603</v>
+      </c>
+      <c r="H37">
+        <v>-2.5032060512749747E-2</v>
+      </c>
+      <c r="I37">
+        <v>1.1379903390908714E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="G39">
+        <f t="array" ref="G39:L41">MMULT(G35:I37,G24:L26)</f>
+        <v>5.2955997541837689</v>
+      </c>
+      <c r="H39">
+        <v>9.7253555944861674</v>
+      </c>
+      <c r="I39">
+        <v>-2.5166438685636336</v>
+      </c>
+      <c r="J39">
+        <v>-4.9266555881922329</v>
+      </c>
+      <c r="K39">
+        <v>-2.1807703479899345</v>
+      </c>
+      <c r="L39">
+        <v>-4.3968855439238723</v>
+      </c>
+    </row>
+    <row r="40" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <v>-1.0389937709877337</v>
+      </c>
+      <c r="H40">
+        <v>-1.6098657915868211</v>
+      </c>
+      <c r="I40">
+        <v>0.42062791731949289</v>
+      </c>
+      <c r="J40">
+        <v>0.92194744634975123</v>
+      </c>
+      <c r="K40">
+        <v>0.46714784336326076</v>
+      </c>
+      <c r="L40">
+        <v>0.83913635554203125</v>
+      </c>
+    </row>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="G41">
+        <v>5.6881171037526379E-3</v>
+      </c>
+      <c r="H41">
+        <v>6.3291520420890382E-3</v>
+      </c>
+      <c r="I41">
+        <v>-1.3672873188698142E-3</v>
+      </c>
+      <c r="J41">
+        <v>-4.2115976446337605E-3</v>
+      </c>
+      <c r="K41">
+        <v>-2.4936690457456751E-3</v>
+      </c>
+      <c r="L41">
+        <v>-3.944715136592461E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="G43">
+        <f t="array" ref="G43:G45">MMULT(G39:L41,G16:G21)</f>
+        <v>1.1949415162793974E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44">
+        <v>2.2135681389884093E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="G45">
+        <v>1.6072546153625734E-7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>